--- a/lineups/FS - TalynA.TxBrdFW.xlsx
+++ b/lineups/FS - TalynA.TxBrdFW.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Typical" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Temp</t>
   </si>
@@ -32,10 +32,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>Note 1</t>
-  </si>
-  <si>
-    <t>Note 2</t>
+    <t>note 1</t>
   </si>
 </sst>
 </file>
@@ -374,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,142 +530,6 @@
       </c>
       <c r="E9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>105</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>105</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>105</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>105</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
